--- a/document/최종_CMW_가격정책(20년).xlsx
+++ b/document/최종_CMW_가격정책(20년).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00001_사업자\0002_ON_OFF\003_통합자료\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B14848-822C-42BA-A72E-D38DAB8D268B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DADE877-21F8-410E-AFF3-AC268EDB0D53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="3015" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="오프_판매가" sheetId="1" r:id="rId1"/>
@@ -1540,24 +1540,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1566,6 +1548,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1578,6 +1563,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4056,35 +4056,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.8984375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.5" style="2" customWidth="1"/>
     <col min="14" max="14" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.75" style="2"/>
+    <col min="17" max="18" width="6.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:21" ht="24" x14ac:dyDescent="0.4">
       <c r="B2" s="91" t="s">
         <v>20</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B4" s="17">
         <v>1</v>
       </c>
@@ -4205,7 +4205,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="15"/>
     </row>
-    <row r="5" spans="2:21" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:21" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B5" s="17">
         <v>2</v>
       </c>
@@ -4258,7 +4258,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="15"/>
     </row>
-    <row r="6" spans="2:21" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B6" s="17">
         <v>3</v>
       </c>
@@ -4310,7 +4310,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="15"/>
     </row>
-    <row r="7" spans="2:21" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B7" s="17">
         <v>4</v>
       </c>
@@ -4362,7 +4362,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="15"/>
     </row>
-    <row r="8" spans="2:21" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B8" s="17">
         <v>5</v>
       </c>
@@ -4414,7 +4414,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="15"/>
     </row>
-    <row r="9" spans="2:21" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B9" s="17">
         <v>6</v>
       </c>
@@ -4467,7 +4467,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="15"/>
     </row>
-    <row r="10" spans="2:21" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:21" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B10" s="17">
         <v>7</v>
       </c>
@@ -4520,7 +4520,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="15"/>
     </row>
-    <row r="11" spans="2:21" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B11" s="17">
         <v>8</v>
       </c>
@@ -4572,7 +4572,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="15"/>
     </row>
-    <row r="12" spans="2:21" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B12" s="17">
         <v>9</v>
       </c>
@@ -4623,7 +4623,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="15"/>
     </row>
-    <row r="13" spans="2:21" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B13" s="17">
         <v>10</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>28600</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B14" s="17">
         <v>11</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>20700</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B15" s="17">
         <v>12</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>24490</v>
       </c>
     </row>
-    <row r="16" spans="2:21" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B16" s="17">
         <v>13</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>25990</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B17" s="17">
         <v>14</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>34990</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B18" s="17">
         <v>15</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>21500</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B19" s="17">
         <v>16</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>25490</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B20" s="17">
         <v>17</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>26990</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B21" s="17">
         <v>18</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>35990</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B22" s="17">
         <v>19</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B23" s="17">
         <v>20</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B24" s="17">
         <v>21</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B25" s="17">
         <v>22</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B26" s="17">
         <v>23</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B27" s="17">
         <v>24</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B28" s="17">
         <v>25</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B29" s="66">
         <v>26</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B30" s="17">
         <v>26</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B31" s="17">
         <v>27</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B32" s="17">
         <v>28</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="15.6" x14ac:dyDescent="0.4">
       <c r="B33" s="17">
         <v>29</v>
       </c>
@@ -5444,24 +5444,24 @@
       <selection activeCell="F4" sqref="F4:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.375" customWidth="1"/>
-    <col min="9" max="14" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.75" style="42"/>
-    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.3984375" customWidth="1"/>
+    <col min="9" max="14" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.69921875" style="42"/>
+    <col min="18" max="18" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" s="24" t="s">
         <v>64</v>
       </c>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="G2" s="38"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>0.17136605189121601</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>0.18006968641114982</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>0.17060505002382087</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -5779,7 +5779,7 @@
         <v>0.17999188311688311</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>0.17999188311688311</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>7</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>0.18013196480938418</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>8</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <v>9</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>10</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>0.18003508771929824</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>11</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>0.18507816200852675</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>12</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>0.1929553980825344</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>13</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>0.19315707620528771</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>14</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>0.19304197814836113</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>15</v>
       </c>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="S18" s="40"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B19" s="4">
         <v>16</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>0.19295436349079265</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B20" s="4">
         <v>17</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>0.19302238805970148</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B21" s="4">
         <v>18</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>0.19419283134203946</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B22" s="4">
         <v>19</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>0.18992339422510313</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B23" s="4">
         <v>20</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>0.18792145238977398</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B24" s="28">
         <v>21</v>
       </c>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B25" s="28">
         <v>22</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>0.18013533107781537</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B26" s="28">
         <v>23</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>0.18004471771939631</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B27" s="28">
         <v>24</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>0.18892857142857142</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B28" s="28">
         <v>25</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>0.18879587894397939</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B29" s="28">
         <v>26</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>0.18752525252525251</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B30" s="28">
         <v>27</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>0.18750619732275656</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B31" s="28">
         <v>28</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>0.19027122641509434</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B32" s="28">
         <v>29</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>0.19010801591813531</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="4"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -7026,7 +7026,7 @@
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="4"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -7048,34 +7048,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:T52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.3984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.8984375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.5" style="2" customWidth="1"/>
-    <col min="12" max="15" width="8.75" style="2"/>
-    <col min="16" max="16" width="4.25" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="8.75" style="2"/>
+    <col min="12" max="15" width="8.69921875" style="2"/>
+    <col min="16" max="16" width="4.19921875" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B3" s="107" t="s">
         <v>73</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>24350</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>-3050</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>75</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>77</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>10940</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>77</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>-2200</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>78</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>79</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>80</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>12180</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>81</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>-850</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
       <c r="L13" s="2" t="s">
         <v>93</v>
       </c>
@@ -7515,13 +7515,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:20" s="44" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:20" s="44" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>98</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>34780</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>99</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
         <v>99</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
         <v>99</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
         <v>100</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
         <v>100</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>6120</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
         <v>100</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>6670</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
       <c r="L24" s="2" t="s">
         <v>113</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>10160</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
         <v>122</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>6870</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B26" s="2" t="s">
         <v>123</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>-840</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B27" s="2" t="s">
         <v>123</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
         <v>123</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
       <c r="L29" s="2" t="s">
         <v>118</v>
       </c>
@@ -7999,13 +7999,13 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="30" spans="2:20" s="44" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:20" s="44" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B32" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="s">
         <v>132</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>21830</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="2" t="s">
         <v>125</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>-840</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="2" t="s">
         <v>126</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36" s="2" t="s">
         <v>127</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
         <v>128</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" s="2" t="s">
         <v>129</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>6120</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" s="2" t="s">
         <v>130</v>
       </c>
@@ -8187,7 +8187,7 @@
         <v>6670</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G40" s="2" t="s">
         <v>135</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>10160</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G41" s="2" t="s">
         <v>136</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>6870</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G42" s="2" t="s">
         <v>137</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>-840</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G43" s="2" t="s">
         <v>138</v>
       </c>
@@ -8247,13 +8247,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:10" s="44" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" s="44" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B49" s="2" t="s">
         <v>168</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>20380</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B50" s="2" t="s">
         <v>169</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B51" s="2" t="s">
         <v>169</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>2645.4545454545455</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B52" s="2" t="s">
         <v>169</v>
       </c>
@@ -8328,16 +8328,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>72</v>
       </c>
@@ -8361,7 +8361,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B3" s="107" t="s">
         <v>73</v>
       </c>
@@ -8399,7 +8399,7 @@
       </c>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
@@ -8454,7 +8454,7 @@
       </c>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>75</v>
       </c>
@@ -8512,7 +8512,7 @@
       </c>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
@@ -8561,7 +8561,7 @@
       </c>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>77</v>
       </c>
@@ -8607,7 +8607,7 @@
       </c>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>77</v>
       </c>
@@ -8660,7 +8660,7 @@
       </c>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>78</v>
       </c>
@@ -8712,7 +8712,7 @@
       </c>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>79</v>
       </c>
@@ -8770,7 +8770,7 @@
       </c>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>80</v>
       </c>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>81</v>
       </c>
@@ -8856,7 +8856,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.4">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -8904,25 +8904,25 @@
       <selection activeCell="R13" sqref="R4:R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="2" max="2" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.69921875" bestFit="1" customWidth="1"/>
     <col min="8" max="13" width="8.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.5" customWidth="1"/>
     <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.8984375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.4">
       <c r="G2">
         <v>26.7</v>
       </c>
@@ -8935,7 +8935,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>389577.42545454542</v>
       </c>
     </row>
-    <row r="5" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>2</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>27429.381818181817</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>3123709.0909090908</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>7219.2</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>28876.799999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>7</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>16344.44509090909</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>8</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>23768.727272727272</v>
       </c>
     </row>
-    <row r="12" spans="2:23" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>9</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>10</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>35279.956363636375</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>11</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>744987.92727272736</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>12</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>9114.7636363636375</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>13</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>71549.672727272729</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>14</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>57669.818181818177</v>
       </c>
     </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>15</v>
       </c>
@@ -10171,7 +10171,7 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="19" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B19" s="4">
         <v>16</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B20" s="4">
         <v>17</v>
       </c>
@@ -10329,7 +10329,7 @@
         <v>16473.599999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B21" s="4">
         <v>18</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>25755.054545454543</v>
       </c>
     </row>
-    <row r="22" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>19</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:25" hidden="1" x14ac:dyDescent="0.4">
       <c r="B23">
         <v>20</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:25" x14ac:dyDescent="0.4">
       <c r="U24" s="1">
         <f>SUM(U4:U23)</f>
         <v>716184.8232727272</v>
@@ -10595,34 +10595,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AF36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.69921875" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.375" customWidth="1"/>
-    <col min="14" max="15" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.3984375" customWidth="1"/>
+    <col min="14" max="15" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="9.875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="10.25" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="9.8984375" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="10.19921875" hidden="1" customWidth="1"/>
     <col min="26" max="32" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B2" s="92" t="s">
         <v>155</v>
       </c>
@@ -10637,7 +10637,7 @@
       <c r="K2" s="92"/>
       <c r="L2" s="92"/>
     </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B3" s="24" t="s">
         <v>156</v>
       </c>
@@ -10684,7 +10684,7 @@
       <c r="T3" s="46"/>
       <c r="U3" s="46"/>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B5" s="45">
         <v>1</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="6" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B6" s="45">
         <v>2</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>26280</v>
       </c>
     </row>
-    <row r="7" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B7" s="45">
         <v>3</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B8" s="45">
         <v>4</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B9" s="45">
         <v>5</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B10" s="45">
         <v>6</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B11" s="45">
         <v>7</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B12" s="45">
         <v>8</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="13" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B13" s="45">
         <v>9</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>19700</v>
       </c>
     </row>
-    <row r="14" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B14" s="45">
         <v>10</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B15" s="45">
         <v>11</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B16" s="45">
         <v>12</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="17" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B17" s="45">
         <v>13</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B18" s="45">
         <v>14</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B19" s="45">
         <v>15</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B20" s="45">
         <v>16</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B21" s="45">
         <v>17</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B22" s="45">
         <v>18</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B23" s="45">
         <v>19</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B24" s="45">
         <v>20</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B25" s="54">
         <v>21</v>
       </c>
@@ -12893,7 +12893,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B26" s="54">
         <v>22</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B27" s="54">
         <v>23</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B28" s="54">
         <v>24</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="29" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B29" s="54">
         <v>25</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>-110</v>
       </c>
     </row>
-    <row r="30" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B30" s="54">
         <v>26</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>-570</v>
       </c>
     </row>
-    <row r="31" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B31" s="54">
         <v>27</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>-480</v>
       </c>
     </row>
-    <row r="32" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B32" s="54">
         <v>28</v>
       </c>
@@ -13616,7 +13616,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="33" spans="2:32" s="25" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:32" s="25" customFormat="1" ht="13.2" x14ac:dyDescent="0.4">
       <c r="B33" s="54">
         <v>29</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>-670</v>
       </c>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.4">
       <c r="B34" s="54">
         <v>30</v>
       </c>
@@ -13787,10 +13787,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.4">
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.4">
       <c r="C36">
         <f>20000*0.0125</f>
         <v>250</v>
@@ -13823,46 +13823,46 @@
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="67" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="67" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" style="67" customWidth="1"/>
+    <col min="2" max="2" width="3.19921875" style="67" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="67" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.625" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.69921875" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.59765625" style="67" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.69921875" style="67" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="6" style="67" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.5" style="67" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.625" style="67" customWidth="1"/>
-    <col min="15" max="15" width="3.25" style="67" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.59765625" style="67" customWidth="1"/>
+    <col min="15" max="15" width="3.19921875" style="67" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" style="67" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.69921875" style="67" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.69921875" style="67" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="6" style="67" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.69921875" style="67" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="6" style="67" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.75" style="67"/>
+    <col min="25" max="16384" width="8.69921875" style="67"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="95" t="s">
+    <row r="2" spans="2:24" ht="30" x14ac:dyDescent="0.4">
+      <c r="B2" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B3" s="101" t="s">
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B3" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="101"/>
+      <c r="C3" s="95"/>
       <c r="D3" s="67">
         <v>0.1</v>
       </c>
@@ -13873,71 +13873,71 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B4" s="96" t="s">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B4" s="102" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
       <c r="K4" s="68"/>
       <c r="L4" s="68"/>
       <c r="M4" s="68"/>
       <c r="N4" s="68"/>
     </row>
-    <row r="5" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="102" t="s">
+    <row r="5" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B5" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="104"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="99"/>
       <c r="N5" s="68"/>
-      <c r="O5" s="99" t="s">
+      <c r="O5" s="93" t="s">
         <v>243</v>
       </c>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="97" t="s">
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
+      <c r="X5" s="94"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B6" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="98" t="s">
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="97" t="s">
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="104" t="s">
         <v>210</v>
       </c>
-      <c r="M6" s="97"/>
+      <c r="M6" s="104"/>
       <c r="N6" s="68"/>
       <c r="O6" s="80" t="s">
         <v>21</v>
@@ -13970,25 +13970,25 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="97" t="s">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B7" s="104" t="s">
         <v>215</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98" t="s">
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="105" t="s">
         <v>244</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="97" t="s">
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="M7" s="97"/>
+      <c r="M7" s="104"/>
       <c r="N7" s="68"/>
       <c r="O7" s="77">
         <v>1</v>
@@ -14025,21 +14025,21 @@
         <v>0.19537037037037036</v>
       </c>
     </row>
-    <row r="8" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="99" t="s">
+    <row r="8" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B8" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="105"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="100"/>
       <c r="O8" s="77">
         <v>2</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>0.20597938144329897</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B9" s="80" t="s">
         <v>185</v>
       </c>
@@ -14147,7 +14147,7 @@
         <v>0.19586854460093897</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B10" s="71">
         <v>1</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>0.2064</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B11" s="71">
         <v>2</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>0.2064</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B12" s="71">
         <v>3</v>
       </c>
@@ -14384,7 +14384,7 @@
         <v>0.20707581227436822</v>
       </c>
     </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B13" s="71">
         <v>4</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>0.20742957746478874</v>
       </c>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B14" s="71">
         <v>5</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>0.20602076124567473</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B15" s="71">
         <v>6</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>0.20830985915492958</v>
       </c>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B16" s="71">
         <v>7</v>
       </c>
@@ -14696,7 +14696,7 @@
         <v>0.21987654320987654</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B17" s="71">
         <v>8</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v>0.22134099616858238</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B18" s="71">
         <v>9</v>
       </c>
@@ -14852,7 +14852,7 @@
         <v>0.2213314447592068</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B19" s="71">
         <v>10</v>
       </c>
@@ -14929,7 +14929,7 @@
         <v>0.20687782805429863</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B20" s="71">
         <v>11</v>
       </c>
@@ -15008,7 +15008,7 @@
         <v>0.21980237154150198</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B21" s="71">
         <v>12</v>
       </c>
@@ -15085,7 +15085,7 @@
         <v>0.2213235294117647</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.4">
       <c r="O22" s="77">
         <v>16</v>
       </c>
@@ -15121,59 +15121,59 @@
         <v>0.2221095890410959</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B23" s="94" t="s">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B23" s="103" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B24" s="94" t="s">
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B24" s="103" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94" t="s">
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103" t="s">
         <v>245</v>
       </c>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94" t="s">
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103" t="s">
         <v>216</v>
       </c>
-      <c r="M24" s="94"/>
-    </row>
-    <row r="25" spans="2:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="93" t="s">
+      <c r="M24" s="103"/>
+    </row>
+    <row r="25" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B25" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B26" s="80" t="s">
         <v>185</v>
       </c>
@@ -15211,7 +15211,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B27" s="71">
         <v>1</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>-5800</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B28" s="71">
         <v>2</v>
       </c>
@@ -15301,7 +15301,7 @@
         <v>-2900</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B29" s="71">
         <v>3</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B30" s="71">
         <v>4</v>
       </c>
@@ -15389,79 +15389,79 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B32" s="94" t="s">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B32" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B33" s="94" t="s">
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B33" s="103" t="s">
         <v>218</v>
       </c>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94" t="s">
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103" t="s">
         <v>220</v>
       </c>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94" t="s">
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="103" t="s">
         <v>221</v>
       </c>
-      <c r="M33" s="94"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="94" t="s">
+      <c r="M33" s="103"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B34" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94" t="s">
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94" t="s">
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103" t="s">
         <v>222</v>
       </c>
-      <c r="M34" s="94"/>
-    </row>
-    <row r="35" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B35" s="93" t="s">
+      <c r="M34" s="103"/>
+    </row>
+    <row r="35" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B35" s="96" t="s">
         <v>206</v>
       </c>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="93"/>
-      <c r="L35" s="93"/>
-      <c r="M35" s="93"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B36" s="80" t="s">
         <v>185</v>
       </c>
@@ -15499,7 +15499,7 @@
         <v>21300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B37" s="71">
         <v>1</v>
       </c>
@@ -15543,7 +15543,7 @@
       </c>
       <c r="O37" s="70"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B38" s="71">
         <v>2</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B39" s="71">
         <v>3</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B40" s="71">
         <v>4</v>
       </c>
@@ -15672,7 +15672,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B41" s="71">
         <v>5</v>
       </c>
@@ -15715,7 +15715,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B42" s="71">
         <v>6</v>
       </c>
@@ -15758,23 +15758,23 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B44" s="93" t="s">
+    <row r="44" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="B44" s="96" t="s">
         <v>223</v>
       </c>
-      <c r="C44" s="93"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="93"/>
-      <c r="L44" s="93"/>
-      <c r="M44" s="93"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C44" s="96"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="96"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B45" s="80" t="s">
         <v>185</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>21300</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B46" s="77">
         <v>1</v>
       </c>
@@ -15855,7 +15855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B47" s="77">
         <v>2</v>
       </c>
@@ -15898,7 +15898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B48" s="77">
         <v>3</v>
       </c>
@@ -15941,7 +15941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B49" s="77">
         <v>4</v>
       </c>
@@ -15986,11 +15986,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="O5:X5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B35:M35"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B8:M8"/>
+    <mergeCell ref="B44:M44"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="E34:K34"/>
+    <mergeCell ref="L34:M34"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:J4"/>
     <mergeCell ref="B32:M32"/>
@@ -16005,13 +16007,11 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:K24"/>
     <mergeCell ref="L24:M24"/>
-    <mergeCell ref="B44:M44"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="E34:K34"/>
-    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="O5:X5"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B35:M35"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B8:M8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16027,21 +16027,21 @@
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.375" customWidth="1"/>
-    <col min="8" max="13" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.3984375" customWidth="1"/>
+    <col min="8" max="13" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B2" s="24" t="s">
         <v>64</v>
       </c>
@@ -16065,7 +16065,7 @@
       <c r="M2" s="106"/>
       <c r="N2" s="106"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>0.17143812709030101</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>-1.6604400166044003E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>0.1900404263138552</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>0.17064220183486239</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>0.17955632883862549</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -16401,7 +16401,7 @@
         <v>0.17955632883862549</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>7</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>0.1801334903808402</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>8</v>
       </c>
@@ -16499,7 +16499,7 @@
         <v>0.18011494252873564</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <v>9</v>
       </c>
@@ -16548,7 +16548,7 @@
         <v>-1.1074197120708749E-4</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>10</v>
       </c>
@@ -16597,7 +16597,7 @@
         <v>0.18004509582863584</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>11</v>
       </c>
@@ -16646,7 +16646,7 @@
         <v>0.1851269035532995</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>12</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>0.19302637460885114</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>13</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>0.19316096747289407</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>14</v>
       </c>
@@ -16793,7 +16793,7 @@
         <v>0.1931236509404872</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>15</v>
       </c>
@@ -16843,7 +16843,7 @@
       </c>
       <c r="R18" s="40"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B19" s="4">
         <v>16</v>
       </c>
@@ -16892,7 +16892,7 @@
         <v>0.19295835122370117</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B20" s="4">
         <v>17</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>0.1931172468987595</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B21" s="4">
         <v>18</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>0.19415797317436662</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B22" s="4">
         <v>19</v>
       </c>
@@ -17038,7 +17038,7 @@
         <v>0.19008212255211623</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B23" s="4">
         <v>20</v>
       </c>
@@ -17086,7 +17086,7 @@
         <v>0.18796664019062748</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B24" s="28">
         <v>21</v>
       </c>
@@ -17135,7 +17135,7 @@
       </c>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B25" s="28">
         <v>22</v>
       </c>
@@ -17183,7 +17183,7 @@
         <v>0.18017598343685301</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B26" s="28">
         <v>23</v>
       </c>
@@ -17231,7 +17231,7 @@
         <v>0.17988023952095808</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B27" s="28">
         <v>24</v>
       </c>
@@ -17279,7 +17279,7 @@
         <v>0.18879846816658688</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B28" s="28">
         <v>25</v>
       </c>
@@ -17327,7 +17327,7 @@
         <v>0.18895790200138027</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B29" s="28">
         <v>26</v>
       </c>
@@ -17375,7 +17375,7 @@
         <v>0.18837852794687326</v>
       </c>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B30" s="28">
         <v>27</v>
       </c>
@@ -17423,7 +17423,7 @@
         <v>0.18749323226854359</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B31" s="28">
         <v>28</v>
       </c>
@@ -17471,7 +17471,7 @@
         <v>0.19037037037037038</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B32" s="28">
         <v>29</v>
       </c>
@@ -17519,14 +17519,14 @@
         <v>0.19026548672566371</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="4"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="21"/>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="4"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -17555,22 +17555,22 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.375" customWidth="1"/>
-    <col min="9" max="14" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.3984375" customWidth="1"/>
+    <col min="9" max="14" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B2" s="24" t="s">
         <v>64</v>
       </c>
@@ -17586,7 +17586,7 @@
       </c>
       <c r="G2" s="38"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -17677,7 +17677,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -17726,7 +17726,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -17775,7 +17775,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -17832,7 +17832,7 @@
         <v>0.15959645669291339</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -17881,7 +17881,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -17930,7 +17930,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>7</v>
       </c>
@@ -17979,7 +17979,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>8</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <v>9</v>
       </c>
@@ -18077,7 +18077,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>10</v>
       </c>
@@ -18126,7 +18126,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>11</v>
       </c>
@@ -18179,7 +18179,7 @@
         <v>4118</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>12</v>
       </c>
@@ -18228,7 +18228,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>13</v>
       </c>
@@ -18277,7 +18277,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>14</v>
       </c>
@@ -18326,7 +18326,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>15</v>
       </c>
@@ -18377,7 +18377,7 @@
       <c r="Q18" s="47"/>
       <c r="S18" s="40"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B19" s="4">
         <v>16</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B20" s="4">
         <v>17</v>
       </c>
@@ -18475,7 +18475,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B21" s="4">
         <v>18</v>
       </c>
@@ -18524,7 +18524,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B22" s="4">
         <v>19</v>
       </c>
@@ -18572,7 +18572,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B23" s="4">
         <v>20</v>
       </c>
@@ -18620,7 +18620,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B24" s="28">
         <v>21</v>
       </c>
@@ -18669,7 +18669,7 @@
       </c>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B25" s="28">
         <v>22</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B26" s="28">
         <v>23</v>
       </c>
@@ -18765,7 +18765,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B27" s="28">
         <v>24</v>
       </c>
@@ -18813,7 +18813,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B28" s="28">
         <v>25</v>
       </c>
@@ -18861,7 +18861,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B29" s="28">
         <v>26</v>
       </c>
@@ -18909,7 +18909,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B30" s="28">
         <v>27</v>
       </c>
@@ -18957,7 +18957,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B31" s="28">
         <v>28</v>
       </c>
@@ -19005,7 +19005,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B32" s="28">
         <v>29</v>
       </c>
@@ -19053,7 +19053,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="4"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -19061,7 +19061,7 @@
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="4"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -19087,94 +19087,94 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="48"/>
-    <col min="2" max="2" width="9.625" style="48" customWidth="1"/>
-    <col min="3" max="16384" width="8.75" style="48"/>
+    <col min="1" max="1" width="8.69921875" style="48"/>
+    <col min="2" max="2" width="9.59765625" style="48" customWidth="1"/>
+    <col min="3" max="16384" width="8.69921875" style="48"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="48" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B7" s="48" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B8" s="48" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B9" s="48" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B10" s="48" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B11" s="48" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B12" s="48" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B13" s="48" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B14" s="48" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B15" s="48" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B16" s="48" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="48" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="48" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="48" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="48" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="48" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="48">
         <f>10-11*0.171366-10*0.09-0.4+0.4*0.09</f>
         <v>6.850973999999999</v>
@@ -19200,7 +19200,7 @@
         <v>31990.77970519229</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="48">
         <v>19680</v>
       </c>
@@ -19240,24 +19240,24 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.375" customWidth="1"/>
-    <col min="9" max="14" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.75" style="42"/>
-    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.3984375" customWidth="1"/>
+    <col min="9" max="14" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.69921875" style="42"/>
+    <col min="18" max="18" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" s="24" t="s">
         <v>64</v>
       </c>
@@ -19273,7 +19273,7 @@
       </c>
       <c r="G2" s="38"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -19367,7 +19367,7 @@
         <v>0.17136605189121601</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -19419,7 +19419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -19471,7 +19471,7 @@
         <v>0.18006968641114982</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -19523,7 +19523,7 @@
         <v>0.17060505002382087</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -19575,7 +19575,7 @@
         <v>0.17999188311688311</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -19627,7 +19627,7 @@
         <v>0.17999188311688311</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>7</v>
       </c>
@@ -19679,7 +19679,7 @@
         <v>0.18013196480938418</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>8</v>
       </c>
@@ -19731,7 +19731,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <v>9</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>10</v>
       </c>
@@ -19835,7 +19835,7 @@
         <v>0.18003508771929824</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>11</v>
       </c>
@@ -19887,7 +19887,7 @@
         <v>0.18507816200852675</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>12</v>
       </c>
@@ -19939,7 +19939,7 @@
         <v>0.1929553980825344</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>13</v>
       </c>
@@ -19991,7 +19991,7 @@
         <v>0.19315707620528771</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>14</v>
       </c>
@@ -20043,7 +20043,7 @@
         <v>0.19304197814836113</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>15</v>
       </c>
@@ -20096,7 +20096,7 @@
       </c>
       <c r="S18" s="40"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B19" s="4">
         <v>16</v>
       </c>
@@ -20148,7 +20148,7 @@
         <v>0.19295436349079265</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B20" s="4">
         <v>17</v>
       </c>
@@ -20200,7 +20200,7 @@
         <v>0.19302238805970148</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B21" s="4">
         <v>18</v>
       </c>
@@ -20252,7 +20252,7 @@
         <v>0.19419283134203946</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B22" s="4">
         <v>19</v>
       </c>
@@ -20303,7 +20303,7 @@
         <v>0.18992339422510313</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B23" s="4">
         <v>20</v>
       </c>
@@ -20354,7 +20354,7 @@
         <v>0.18792145238977398</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B24" s="28">
         <v>21</v>
       </c>
@@ -20406,7 +20406,7 @@
       </c>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B25" s="28">
         <v>22</v>
       </c>
@@ -20457,7 +20457,7 @@
         <v>0.18013533107781537</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B26" s="28">
         <v>23</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>0.18004471771939631</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B27" s="28">
         <v>24</v>
       </c>
@@ -20559,7 +20559,7 @@
         <v>0.18892857142857142</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B28" s="28">
         <v>25</v>
       </c>
@@ -20610,7 +20610,7 @@
         <v>0.18879587894397939</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B29" s="28">
         <v>26</v>
       </c>
@@ -20661,7 +20661,7 @@
         <v>0.18752525252525251</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B30" s="28">
         <v>27</v>
       </c>
@@ -20712,7 +20712,7 @@
         <v>0.18750619732275656</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B31" s="28">
         <v>28</v>
       </c>
@@ -20763,7 +20763,7 @@
         <v>0.19027122641509434</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B32" s="28">
         <v>29</v>
       </c>
@@ -20814,7 +20814,7 @@
         <v>0.19010801591813531</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="4"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -20822,7 +20822,7 @@
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="4"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -20848,24 +20848,24 @@
       <selection activeCell="F4" sqref="F4:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.375" customWidth="1"/>
-    <col min="9" max="14" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.75" style="42"/>
-    <col min="18" max="18" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.3984375" customWidth="1"/>
+    <col min="9" max="14" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.3984375" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.69921875" style="42"/>
+    <col min="18" max="18" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" s="24" t="s">
         <v>64</v>
       </c>
@@ -20881,7 +20881,7 @@
       </c>
       <c r="G2" s="38"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
@@ -20923,7 +20923,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -20975,7 +20975,7 @@
         <v>0.17136605189121601</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="4">
         <v>2</v>
       </c>
@@ -21027,7 +21027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="4">
         <v>3</v>
       </c>
@@ -21079,7 +21079,7 @@
         <v>0.18006968641114982</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -21131,7 +21131,7 @@
         <v>0.17060505002382087</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B8" s="4">
         <v>5</v>
       </c>
@@ -21183,7 +21183,7 @@
         <v>0.17999188311688311</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B9" s="4">
         <v>6</v>
       </c>
@@ -21235,7 +21235,7 @@
         <v>0.17999188311688311</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B10" s="4">
         <v>7</v>
       </c>
@@ -21287,7 +21287,7 @@
         <v>0.18013196480938418</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B11" s="4">
         <v>8</v>
       </c>
@@ -21339,7 +21339,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B12" s="4">
         <v>9</v>
       </c>
@@ -21391,7 +21391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B13" s="4">
         <v>10</v>
       </c>
@@ -21443,7 +21443,7 @@
         <v>0.18003508771929824</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B14" s="4">
         <v>11</v>
       </c>
@@ -21495,7 +21495,7 @@
         <v>0.18507816200852675</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
         <v>12</v>
       </c>
@@ -21547,7 +21547,7 @@
         <v>0.1929553980825344</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B16" s="4">
         <v>13</v>
       </c>
@@ -21599,7 +21599,7 @@
         <v>0.19315707620528771</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B17" s="4">
         <v>14</v>
       </c>
@@ -21651,7 +21651,7 @@
         <v>0.19304197814836113</v>
       </c>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B18" s="4">
         <v>15</v>
       </c>
@@ -21704,7 +21704,7 @@
       </c>
       <c r="S18" s="40"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B19" s="4">
         <v>16</v>
       </c>
@@ -21756,7 +21756,7 @@
         <v>0.19295436349079265</v>
       </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B20" s="4">
         <v>17</v>
       </c>
@@ -21808,7 +21808,7 @@
         <v>0.19302238805970148</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B21" s="4">
         <v>18</v>
       </c>
@@ -21860,7 +21860,7 @@
         <v>0.19419283134203946</v>
       </c>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B22" s="4">
         <v>19</v>
       </c>
@@ -21911,7 +21911,7 @@
         <v>0.18992339422510313</v>
       </c>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B23" s="4">
         <v>20</v>
       </c>
@@ -21962,7 +21962,7 @@
         <v>0.18792145238977398</v>
       </c>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B24" s="28">
         <v>21</v>
       </c>
@@ -22014,7 +22014,7 @@
       </c>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B25" s="28">
         <v>22</v>
       </c>
@@ -22065,7 +22065,7 @@
         <v>0.18013533107781537</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B26" s="28">
         <v>23</v>
       </c>
@@ -22116,7 +22116,7 @@
         <v>0.18004471771939631</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B27" s="28">
         <v>24</v>
       </c>
@@ -22167,7 +22167,7 @@
         <v>0.18892857142857142</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B28" s="28">
         <v>25</v>
       </c>
@@ -22218,7 +22218,7 @@
         <v>0.18879587894397939</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B29" s="28">
         <v>26</v>
       </c>
@@ -22269,7 +22269,7 @@
         <v>0.18752525252525251</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B30" s="28">
         <v>27</v>
       </c>
@@ -22320,7 +22320,7 @@
         <v>0.18750619732275656</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B31" s="28">
         <v>28</v>
       </c>
@@ -22371,7 +22371,7 @@
         <v>0.19027122641509434</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
       <c r="B32" s="28">
         <v>29</v>
       </c>
@@ -22422,7 +22422,7 @@
         <v>0.19010801591813531</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="4"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -22430,7 +22430,7 @@
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="4"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
